--- a/TipCalc.xlsx
+++ b/TipCalc.xlsx
@@ -987,7 +987,7 @@
         <v>20</v>
       </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
